--- a/images/test_results.xlsx
+++ b/images/test_results.xlsx
@@ -12,10 +12,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="WRAPPERS" sheetId="1" r:id="rId1"/>
+    <sheet name="INSTALLERS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">INSTALLERS!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WRAPPERS!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>WITHOUT WRAPPER</t>
   </si>
@@ -90,6 +92,57 @@
   </si>
   <si>
     <t>SUPPORTED WITH ENHANCEMENTS</t>
+  </si>
+  <si>
+    <t>AAC 2.0 256kbps AAC 5.1 512kbps</t>
+  </si>
+  <si>
+    <t>OTHERS INSTALLERS</t>
+  </si>
+  <si>
+    <t>DARKNEBULAR'S INSTALLER</t>
+  </si>
+  <si>
+    <t>Detailed process</t>
+  </si>
+  <si>
+    <t>Checking if you already have installed a wrapper.</t>
+  </si>
+  <si>
+    <t>Can you Configure the wrapper?</t>
+  </si>
+  <si>
+    <t>SUPPORTED WITH CHECKINGS</t>
+  </si>
+  <si>
+    <t>Installation of the Wrapper</t>
+  </si>
+  <si>
+    <t>Uninstallation of the Wrapper</t>
+  </si>
+  <si>
+    <t>Checking if you are root for running the installer</t>
+  </si>
+  <si>
+    <t>Checking if you have loaded the licence in Advance Media Extension</t>
+  </si>
+  <si>
+    <t>Checking if you already have uninstalled a wrapper.</t>
+  </si>
+  <si>
+    <t>Ensuring that the configuration is only done in Advanced Wrapper only</t>
+  </si>
+  <si>
+    <t>Can you install other wrappers?</t>
+  </si>
+  <si>
+    <t>Checking the dependencies</t>
+  </si>
+  <si>
+    <t>Show all dependencies missing at once</t>
+  </si>
+  <si>
+    <t>Logging of the installation or uninstallation process</t>
   </si>
 </sst>
 </file>
@@ -159,13 +212,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -174,18 +224,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -200,11 +238,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1534,6 +1595,1001 @@
         <a:xfrm>
           <a:off x="2334683" y="5541432"/>
           <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485777</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400552" y="628651"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="638175"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagen 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="1181101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1190625"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagen 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="1733551"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Imagen 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1743075"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Imagen 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="11525250"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516614" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="12125325"/>
+          <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="12687300"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="2324101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516614" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="12125325"/>
+          <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516614" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagen 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2333625"/>
+          <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="2324101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516614" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2333625"/>
+          <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="1181101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1190625"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="1733551"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1743075"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391027" y="1181101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886075" y="1190625"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagen 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="4019551"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="4029075"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagen 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="4562476"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="4572000"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagen 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="2905126"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="516614" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="2914650"/>
+          <a:ext cx="516614" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagen 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="3467101"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3476625"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagen 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="6238876"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagen 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="7381875"/>
+          <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,37 +2866,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A35" sqref="A29:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1848,40 +2904,40 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1889,14 +2945,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1906,24 +2962,24 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1931,59 +2987,59 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
@@ -1991,29 +3047,29 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -2021,99 +3077,290 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>15</v>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A29:D31"/>
     <mergeCell ref="A32:D34"/>
     <mergeCell ref="A35:D37"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A13:A14"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A18:C20"/>
+    <mergeCell ref="A21:C23"/>
+    <mergeCell ref="A24:C26"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>

--- a/images/test_results.xlsx
+++ b/images/test_results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>WITHOUT WRAPPER</t>
   </si>
@@ -67,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>AAC 5.1 512kbps MP3 2.0 256kbps</t>
-  </si>
-  <si>
     <t>Native Audio Codec</t>
   </si>
   <si>
     <t>Offiline Transcoding</t>
   </si>
   <si>
-    <t>MP3 2.0 256kbps AAC 5.1 512kbps</t>
-  </si>
-  <si>
     <t>MP3 2.0 128kbps</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>SUPPORTED WITH ENHANCEMENTS</t>
   </si>
   <si>
-    <t>AAC 2.0 256kbps AAC 5.1 512kbps</t>
-  </si>
-  <si>
     <t>OTHERS INSTALLERS</t>
   </si>
   <si>
@@ -143,6 +134,18 @@
   </si>
   <si>
     <t>Logging of the installation or uninstallation process</t>
+  </si>
+  <si>
+    <t>AAC 5.1 512kbps          MP3 2.0 256kbps</t>
+  </si>
+  <si>
+    <t>MP3 2.0 256kbps          AAC 5.1 512kbps</t>
+  </si>
+  <si>
+    <t>MP3 2.0 256kbps           AAC 5.1 512kbps</t>
+  </si>
+  <si>
+    <t>AAC 2.0 256kbps           AAC 5.1 512kbps</t>
   </si>
 </sst>
 </file>
@@ -238,6 +241,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -245,27 +262,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -289,13 +292,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
+      <xdr:colOff>463552</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>707357</xdr:colOff>
+      <xdr:colOff>961357</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>514576</xdr:rowOff>
     </xdr:to>
@@ -314,7 +317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152902" y="800101"/>
+          <a:off x="6464302" y="806451"/>
           <a:ext cx="497805" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -327,13 +330,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>742125</xdr:colOff>
+      <xdr:colOff>996125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>532240</xdr:rowOff>
     </xdr:to>
@@ -352,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="819150"/>
+          <a:off x="3556000" y="825500"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -365,13 +368,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>678539</xdr:colOff>
+      <xdr:colOff>932539</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>524100</xdr:rowOff>
     </xdr:to>
@@ -390,7 +393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="809625"/>
+          <a:off x="4972050" y="815975"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -403,13 +406,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>669014</xdr:colOff>
+      <xdr:colOff>923014</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>524099</xdr:rowOff>
     </xdr:to>
@@ -428,7 +431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="1562099"/>
+          <a:off x="4962525" y="1879599"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -441,13 +444,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>726164</xdr:colOff>
+      <xdr:colOff>980164</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>524099</xdr:rowOff>
     </xdr:to>
@@ -466,7 +469,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152900" y="1562099"/>
+          <a:off x="6464300" y="1879599"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -479,13 +482,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>745214</xdr:colOff>
+      <xdr:colOff>999214</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>524099</xdr:rowOff>
     </xdr:to>
@@ -504,7 +507,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="1562099"/>
+          <a:off x="3546475" y="1879599"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -517,7 +520,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -537,7 +540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="1762124"/>
+          <a:off x="4962525" y="3594099"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -550,7 +553,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -570,7 +573,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="1762124"/>
+          <a:off x="6464300" y="3594099"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -583,7 +586,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -603,7 +606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="1762124"/>
+          <a:off x="3546475" y="3594099"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -616,7 +619,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -636,7 +639,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="819150"/>
+          <a:off x="3556000" y="2635250"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,7 +652,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -669,7 +672,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="809625"/>
+          <a:off x="4972050" y="2625725"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -682,7 +685,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -702,7 +705,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4438650" y="3448050"/>
+          <a:off x="6492875" y="2616200"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -715,7 +718,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
+      <xdr:colOff>463552</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -735,7 +738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410077" y="800101"/>
+          <a:off x="6464302" y="4711701"/>
           <a:ext cx="497805" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -748,7 +751,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -768,7 +771,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="819150"/>
+          <a:off x="3556000" y="4730750"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -781,7 +784,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -801,7 +804,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="809625"/>
+          <a:off x="4972050" y="4721225"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -814,7 +817,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -834,7 +837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="1762124"/>
+          <a:off x="4962525" y="5673724"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -847,7 +850,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -867,7 +870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="1762124"/>
+          <a:off x="6464300" y="5673724"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -880,7 +883,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -900,7 +903,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="1762124"/>
+          <a:off x="3546475" y="5673724"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -913,7 +916,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
+      <xdr:colOff>463552</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -933,7 +936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410077" y="6000751"/>
+          <a:off x="6464302" y="6410326"/>
           <a:ext cx="497805" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -946,7 +949,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -966,7 +969,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="6019800"/>
+          <a:off x="3556000" y="6429375"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -979,7 +982,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -999,7 +1002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="6010275"/>
+          <a:off x="4972050" y="6419850"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1012,7 +1015,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1032,7 +1035,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="6962774"/>
+          <a:off x="4962525" y="7388224"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1045,7 +1048,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1065,7 +1068,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="6962774"/>
+          <a:off x="6464300" y="7388224"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1078,7 +1081,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1098,7 +1101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="6962774"/>
+          <a:off x="3546475" y="7388224"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1111,7 +1114,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
+      <xdr:colOff>463552</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -1131,7 +1134,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410077" y="7705726"/>
+          <a:off x="6464302" y="8108951"/>
           <a:ext cx="497805" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1144,7 +1147,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -1164,7 +1167,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2343150" y="7724775"/>
+          <a:off x="3556000" y="8128000"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1177,7 +1180,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -1197,7 +1200,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324225" y="7715250"/>
+          <a:off x="4972050" y="8118475"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1210,7 +1213,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1230,7 +1233,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="8677274"/>
+          <a:off x="4962525" y="9070974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1243,7 +1246,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1263,7 +1266,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4410075" y="8677274"/>
+          <a:off x="6464300" y="9070974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1276,7 +1279,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1296,7 +1299,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2333625" y="8677274"/>
+          <a:off x="3546475" y="9070974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1408,7 +1411,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209552</xdr:colOff>
+      <xdr:colOff>463552</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
@@ -1428,7 +1431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4411135" y="4579409"/>
+          <a:off x="6464302" y="9791701"/>
           <a:ext cx="497805" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,7 +1444,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -1461,7 +1464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2344208" y="4598458"/>
+          <a:off x="3556000" y="9810750"/>
           <a:ext cx="504000" cy="484615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1474,7 +1477,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>415925</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -1494,7 +1497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3326342" y="4588933"/>
+          <a:off x="4972050" y="9801225"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1507,7 +1510,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1527,7 +1530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3316817" y="5541432"/>
+          <a:off x="4962525" y="10848974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1540,7 +1543,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>463550</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1560,7 +1563,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4411133" y="5541432"/>
+          <a:off x="6464300" y="10848974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1573,7 +1576,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
@@ -1593,7 +1596,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2334683" y="5541432"/>
+          <a:off x="3546475" y="10848974"/>
           <a:ext cx="516614" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2864,18 +2867,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A35" sqref="A29:D37"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2891,20 +2895,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,70 +2936,70 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3004,28 +3008,28 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3034,28 +3038,28 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3064,28 +3068,28 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3094,67 +3098,75 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A32:D34"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A29:D31"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A20:D20"/>
@@ -3162,17 +3174,9 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A29:D31"/>
-    <mergeCell ref="A32:D34"/>
-    <mergeCell ref="A35:D37"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="96" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3187,172 +3191,172 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="16" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="9" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
+      <c r="A1" s="11"/>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
+      <c r="A3" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>29</v>
+      <c r="A7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="A11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>35</v>
+      <c r="A13" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>37</v>
+      <c r="A15" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="A24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/images/test_results.xlsx
+++ b/images/test_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebular\Desktop\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nebular\Desktop\Wrapper_VideoStation-SCPT_1.16\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INSTALLERS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">INSTALLERS!$A$1:$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">INSTALLERS!$A$1:$C$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">WRAPPERS!$A$1:$D$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>WITHOUT WRAPPER</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>AAC 2.0 256kbps           AAC 5.1 512kbps</t>
+  </si>
+  <si>
+    <t>Interactive Process</t>
+  </si>
+  <si>
+    <t>Multi Language Support</t>
   </si>
 </sst>
 </file>
@@ -238,9 +244,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -249,11 +252,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -264,11 +267,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,7 +1819,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="504000" cy="484615"/>
@@ -1846,7 +1852,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="516614" cy="486000"/>
@@ -1879,7 +1885,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="497805" cy="486000"/>
@@ -1945,7 +1951,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="516614" cy="486000"/>
@@ -2579,6 +2585,138 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="72" name="Imagen 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="7381875"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648202" y="6800851"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="6810375"/>
+          <a:ext cx="504000" cy="484615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="497805" cy="486000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648202" y="7381876"/>
+          <a:ext cx="497805" cy="486000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="504000" cy="484615"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2872,7 +3010,9 @@
   </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2884,31 +3024,31 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2936,20 +3076,20 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -2961,12 +3101,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -2978,20 +3118,20 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -3008,12 +3148,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -3038,20 +3178,20 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
@@ -3068,20 +3208,20 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -3098,64 +3238,64 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3176,42 +3316,42 @@
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="96" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="97" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C26"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="63" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3223,11 +3363,11 @@
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -3237,7 +3377,7 @@
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="4"/>
@@ -3251,11 +3391,11 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -3265,11 +3405,11 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -3279,7 +3419,7 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="4"/>
@@ -3293,77 +3433,91 @@
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+    <row r="16" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A18:C20"/>
-    <mergeCell ref="A21:C23"/>
-    <mergeCell ref="A24:C26"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A20:C22"/>
+    <mergeCell ref="A23:C25"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
